--- a/src/test/resources/archivos/VL 10 - 1807 Exclusión.xlsx
+++ b/src/test/resources/archivos/VL 10 - 1807 Exclusión.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodolfo\Desktop\Automatizacion-RIMAC\fmrk\archivos para las pruebas\exclusiones certificados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RIMAC - AUTOMATIZACION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AABA77-4620-430C-AB01-2216B065D651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EA2475-1D71-4611-9E01-957A0485393A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14292" yWindow="0" windowWidth="14616" windowHeight="15588" tabRatio="596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trama Estándard" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>TIPO_DOCUMENTO</t>
   </si>
@@ -143,9 +143,6 @@
   </si>
   <si>
     <t>1967727</t>
-  </si>
-  <si>
-    <t>INCLUSÍON</t>
   </si>
 </sst>
 </file>
@@ -388,9 +385,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -428,9 +425,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -463,9 +460,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -498,9 +512,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -678,19 +709,19 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="18.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="14.28515625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="5" width="18.0"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="15.7109375"/>
-    <col min="4" max="4" customWidth="true" style="5" width="19.28515625"/>
-    <col min="5" max="16384" style="1" width="18.28515625"/>
+    <col min="1" max="1" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="18.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -704,9 +735,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>5</v>
@@ -715,7 +746,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="6">
-        <v>46268921</v>
+        <v>46268923</v>
       </c>
     </row>
   </sheetData>
